--- a/biology/Botanique/Magnolia_liliifera/Magnolia_liliifera.xlsx
+++ b/biology/Botanique/Magnolia_liliifera/Magnolia_liliifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Magnolia liliifera est une espèce de plantes à fleurs de la famille des Magnoliaceae.
 Il est également connu sous le nom de magnolia à œuf.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre qui atteint une hauteur s'étalant de 3.5 m à 18.5 m in situ[2]. 
-Ce magnolia porte des fleurs blanches à crème sur des tiges terminales[2]. Les fleurs sont elliptiques avec 25 cm de longueur et 8 de largeur. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre qui atteint une hauteur s'étalant de 3.5 m à 18.5 m in situ. 
+Ce magnolia porte des fleurs blanches à crème sur des tiges terminales. Les fleurs sont elliptiques avec 25 cm de longueur et 8 de largeur. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Magnolia liliifera est une plante à fleurs autochtone aux régions du sud-est de l'Asie[3],[4]. On la trouve dans la péninsule indochinoise en Thaïlande, au Vietnam, au Cambodge et au Laos, en Indonésie et aux Philippines.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Magnolia liliifera est une plante à fleurs autochtone aux régions du sud-est de l'Asie,. On la trouve dans la péninsule indochinoise en Thaïlande, au Vietnam, au Cambodge et au Laos, en Indonésie et aux Philippines.</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Liriodendron liliiferum L.
 Magnolia craibiana Dandy
